--- a/config/Reports/1720.xlsx
+++ b/config/Reports/1720.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.Pobudei\Sherpa-projects\ChartApacheSuperset\config\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBD0F13-9B31-42BB-A91F-B6E8598DEDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F668A53F-3C13-4367-AA2F-C839770ECF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2025" windowWidth="21600" windowHeight="12405" firstSheet="5" activeTab="16" xr2:uid="{F25D9E0C-6554-49DC-8F98-5E22B2A9148B}"/>
+    <workbookView xWindow="32400" yWindow="3645" windowWidth="21600" windowHeight="11880" firstSheet="13" activeTab="18" xr2:uid="{F25D9E0C-6554-49DC-8F98-5E22B2A9148B}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="6" r:id="rId1"/>
@@ -31,6 +31,8 @@
     <sheet name="К11" sheetId="20" r:id="rId16"/>
     <sheet name="17201 датасет" sheetId="1" r:id="rId17"/>
     <sheet name="17202 датасет" sheetId="3" r:id="rId18"/>
+    <sheet name="!17201 полный датасет" sheetId="21" r:id="rId19"/>
+    <sheet name="!17202 полный датасет" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +43,172 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Жуков Константин Николаевич</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4E5C642F-4034-420A-99D6-BEECF5081A0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Жуков Константин Николаевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Если имя вкладки начинается с "!" то это доп.объект, который необходимо создать</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{9C3FE0B0-79ED-4621-AA26-69CACB4DF5BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Жуков Константин Николаевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Команды выполняем в sqlcmd.exe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{3A97F8FD-D273-454A-ABC7-704DD1652CAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Жуков Константин Николаевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Команды выполняем в sqlcmd.exe</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Жуков Константин Николаевич</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{73B0DE64-1A7B-4B03-9495-D79B2594E4B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Жуков Константин Николаевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Если имя вкладки начинается с "!" то это доп.объект, который необходимо создать</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{957AC84F-5A38-499C-9CD7-247E9C470EF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Жуков Константин Николаевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Команды выполняем в sqlcmd.exe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{6282E4AB-235A-46EE-A9DF-FF8BB999FEF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Жуков Константин Николаевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Команды выполняем в sqlcmd.exe</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="184">
   <si>
     <t>Имя таблицы</t>
   </si>
@@ -363,13 +529,244 @@
   </si>
   <si>
     <t>дата</t>
+  </si>
+  <si>
+    <t>Сервер</t>
+  </si>
+  <si>
+    <t>CBT-STENDNBRBBY</t>
+  </si>
+  <si>
+    <t>Имя создаваемого объекта</t>
+  </si>
+  <si>
+    <t>1720_17201 полный датасет</t>
+  </si>
+  <si>
+    <t>Команда создания:</t>
+  </si>
+  <si>
+    <t>IF EXISTS(select * FROM sys.views where name = '1720_17201 полный датасет')</t>
+  </si>
+  <si>
+    <t>DROP VIEW [user].[1720_17201 полный датасет]</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [user].[1720_17201 полный датасет]</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>SELECT ROW_NUMBER() OVER (ORDER BY A.[Инструмент], A.[Контрагент (K6)], A.[код вида кредита/депозита (K2)], A.[код группы кредита (K3)], A.[код срока возврата (K5)]) as RowNumber,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A.[branch] as Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,B.[Наименование] as [банк]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,C.[Наименование вида инструмента  кредита (депозита)] as [Инструмент]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,D.[Наименование типа контрагента] as [Контрагент]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,E.[Код валюты] as [код валюты (K1)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,E.[Наименование] as [валюта (K1)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,F.[Код вида кредита/вида банковского вклада (депозита)] as [код вида кредита/депозита (K2)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,F.[Наименование] as [вид кредита/депозита (K2)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,A.[код группы кредита (K3)] as [код группы кредита (K3)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,G.[Наименование] as [группа кредита (K3)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,H.[Код условий начисления и уплаты процентов по кредиту/банковскому вкладу (депозиту)] as [код условий начисления и уплаты процентов по кредиту/депозиту (K4)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,H.[Наименование] as [условия начисления и уплаты процентов по кредиту/депозиту (K4)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,I.[Код срока возврата] as [код срока возврата (K5)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,I.[Наименование] as [срока возврата (K5)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,A.[код типа сектора экономики контрагента банка (K9)] as [K9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,J.[Наименование] as [сектор экономики контрагента банка (K9)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,K.[Наименование] as [Буква++расшифровка (К10)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,A.[дата] as [месяц.год]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,L.[Наименование вида ед измерения] as [ед измерения]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,A.[Сумма по столбцу объем нового кредита, банковского вклада (депозита) (X1)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,A.[Отклонение]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,A.[ставка 1 (X1*X2/X1)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,A.[ставка ср (X1*X3/X1)]</t>
+  </si>
+  <si>
+    <t>FROM [user].[1720_17201 датасет] A</t>
+  </si>
+  <si>
+    <t>INNER JOIN [user].[1720_branch] B ON A.[branch]=B.[Код банка]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_instr] C ON A.[Инструмент]=C.[Код вида инструмента кредита (депозита)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_status] D ON A.[Контрагент (K6)]=D.[Код типа контрагента]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_K1] E ON A.[код валюты (K1)]=E.[Код валюты]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_K2] F ON A.[код вида кредита/депозита (K2)]=F.[Код вида кредита/вида банковского вклада (депозита)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_K3] G ON A.[код группы кредита (K3)]=G.[Код группы кредита / способа и цели привлечения денежных средств в банковский вклад (депозит)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_K4] H ON A.[код условий начисления и уплаты процентов по кредиту/депозиту (K4)]=H.[Код условий начисления и уплаты процентов по кредиту/банковскому вкладу (депозиту)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_K5] I ON A.[код срока возврата (K5)]=I.[Код срока возврата]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_K9] J ON A.[код типа сектора экономики контрагента банка (K9)]=J.[Код типа сектора экономики контрагента банка]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_Activity] K ON A.[Буква+расшифровка (К10)]=K.[Код основного вида экономической деятельности контрагента банка]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_unit] L ON A.[ед измерения]=L.[Код вида ед измерения]</t>
+  </si>
+  <si>
+    <t>Конец команды:</t>
+  </si>
+  <si>
+    <t>Команда публикации:</t>
+  </si>
+  <si>
+    <t>IF EXISTS(select * FROM sys.views where name = '1720_17201 полный датасет_prom')</t>
+  </si>
+  <si>
+    <t>DROP VIEW [user].[1720_17201 полный датасет_prom]</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [user].[1720_17201 полный датасет_prom]</t>
+  </si>
+  <si>
+    <t>FROM [user].[1720_17201 датасет_prom] A</t>
+  </si>
+  <si>
+    <t>INNER JOIN [user].[1720_branch_prom] B ON A.[branch]=B.[Код банка]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_instr_prom] C ON A.[Инструмент]=C.[Код вида инструмента кредита (депозита)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_status_prom] D ON A.[Контрагент (K6)]=D.[Код типа контрагента]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_K1_prom] E ON A.[код валюты (K1)]=E.[Код валюты]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_K2_prom] F ON A.[код вида кредита/депозита (K2)]=F.[Код вида кредита/вида банковского вклада (депозита)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_K3_prom] G ON A.[код группы кредита (K3)]=G.[Код группы кредита / способа и цели привлечения денежных средств в банковский вклад (депозит)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_K4_prom] H ON A.[код условий начисления и уплаты процентов по кредиту/депозиту (K4)]=H.[Код условий начисления и уплаты процентов по кредиту/банковскому вкладу (депозиту)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_K5_prom] I ON A.[код срока возврата (K5)]=I.[Код срока возврата]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_K9_prom] J ON A.[код типа сектора экономики контрагента банка (K9)]=J.[Код типа сектора экономики контрагента банка]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LEFT JOIN [user].[1720_Activity_prom] K ON A.[Буква+расшифровка (К10)]=K.[Код основного вида экономической деятельности контрагента банка]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN [user].[1720_unit_prom] L ON A.[ед измерения]=L.[Код вида ед измерения]</t>
+  </si>
+  <si>
+    <t>1720_17202 полный датасет</t>
+  </si>
+  <si>
+    <t>IF EXISTS(select * FROM sys.views where name = '1720_17202 полный датасет')</t>
+  </si>
+  <si>
+    <t>DROP VIEW [user].[1720_17202 полный датасет]</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [user].[1720_17202 полный датасет]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,A.[дата]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,A.[X1] as [X1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,A.[ставка (Y1/Y2)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,A.[Y1 (числитель X2*X3*X4)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ,A.[Y2 (знаменатель X2*X3)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM [user].[1720_17202 датасет] A</t>
+  </si>
+  <si>
+    <t>IF EXISTS(select * FROM sys.views where name = '1720_17202 полный датасет_prom')</t>
+  </si>
+  <si>
+    <t>DROP VIEW [user].[1720_17202 полный датасет_prom]</t>
+  </si>
+  <si>
+    <t>CREATE VIEW [user].[1720_17202 полный датасет_prom]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM [user].[1720_17202 датасет_prom] A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +779,34 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -408,12 +833,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2258,7 +2686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02BDF97-5CC9-4346-9B3C-6E64B1474054}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2642,6 +3070,505 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEF8168-D8E6-41CF-B925-5156C3CE09A7}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC52A432-E69C-4B72-B231-C6F24E26C152}">
   <dimension ref="A1:B25"/>
@@ -2830,6 +3757,524 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D18DEC6-E1B0-4B44-9E52-3EE9A4012259}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
